--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS  HERRADURA   MARZO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS  HERRADURA   MARZO    2023.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2023     " sheetId="1" r:id="rId1"/>
     <sheet name="REMISIONES  FEBRERO  2023" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
+    <sheet name="   REMISIONES     MARZO   2023 " sheetId="4" r:id="rId3"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId4"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId5"/>
     <sheet name="Hoja7" sheetId="7" r:id="rId6"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="62">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>28-Feb-23--</t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE   MARZO      2 0 2 3</t>
   </si>
 </sst>
 </file>
@@ -1028,6 +1031,117 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA8ED25-5E55-4F35-9A11-570092F029FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="24493540"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2272C1A0-23C1-416E-8467-7A61862AE18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="24541167"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3506,8 +3620,8 @@
   </sheetPr>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:G23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F84" sqref="F83:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4932,11 +5046,11 @@
         <v>44983</v>
       </c>
       <c r="G55" s="32">
-        <v>15310</v>
+        <v>15510</v>
       </c>
       <c r="H55" s="33">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5268,8 +5382,8 @@
       <c r="E68" s="22">
         <v>5400</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="32"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="68"/>
       <c r="H68" s="20">
         <f t="shared" si="0"/>
         <v>5400</v>
@@ -5501,8 +5615,8 @@
       <c r="E77" s="22">
         <v>8100</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="32"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="20">
         <f t="shared" si="0"/>
         <v>8100</v>
@@ -5680,11 +5794,15 @@
       <c r="E84" s="22">
         <v>3828</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="32"/>
+      <c r="F84" s="67">
+        <v>44986</v>
+      </c>
+      <c r="G84" s="68">
+        <v>3828</v>
+      </c>
       <c r="H84" s="20">
         <f t="shared" si="0"/>
-        <v>3828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5780,11 +5898,15 @@
       <c r="E88" s="22">
         <v>3175</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="32"/>
+      <c r="F88" s="67">
+        <v>44986</v>
+      </c>
+      <c r="G88" s="68">
+        <v>3175</v>
+      </c>
       <c r="H88" s="20">
         <f t="shared" si="0"/>
-        <v>3175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5829,8 +5951,8 @@
       <c r="E90" s="22">
         <v>2404</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="32"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="68"/>
       <c r="H90" s="20">
         <f t="shared" si="0"/>
         <v>2404</v>
@@ -5851,8 +5973,8 @@
       <c r="E91" s="22">
         <v>3240</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="32"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="68"/>
       <c r="H91" s="20">
         <f t="shared" si="0"/>
         <v>3240</v>
@@ -5895,11 +6017,11 @@
       <c r="F94" s="47"/>
       <c r="G94" s="47">
         <f>SUM(G4:G93)</f>
-        <v>382907</v>
+        <v>390110</v>
       </c>
       <c r="H94" s="48">
         <f>SUM(H4:H93)</f>
-        <v>28625</v>
+        <v>21422</v>
       </c>
       <c r="I94" s="3"/>
     </row>
@@ -5943,7 +6065,7 @@
       <c r="D98" s="3"/>
       <c r="E98" s="78">
         <f>E94-G94</f>
-        <v>28625</v>
+        <v>21422</v>
       </c>
       <c r="F98" s="79"/>
       <c r="G98" s="80"/>
@@ -6084,13 +6206,1712 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="58" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="18" style="66" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>44986</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1129</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="18">
+        <v>2150</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4:H93" si="0">E4-G4</f>
+        <v>2150</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
+        <v>1130</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <v>1131</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>1132</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>1133</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>1134</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>1135</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>1136</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>1137</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>1138</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>1139</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>1141</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>1142</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>1143</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>1144</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>1145</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>1146</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>1147</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>1148</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>1149</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>1150</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>1151</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>1152</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>1153</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+      <c r="B29" s="70">
+        <f t="shared" si="1"/>
+        <v>1154</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="70">
+        <f t="shared" si="1"/>
+        <v>1155</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="70">
+        <f t="shared" si="1"/>
+        <v>1156</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70">
+        <f t="shared" si="1"/>
+        <v>1157</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70">
+        <f t="shared" si="1"/>
+        <v>1158</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="70">
+        <f t="shared" si="1"/>
+        <v>1159</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="70">
+        <f t="shared" si="1"/>
+        <v>1160</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="70">
+        <f t="shared" si="1"/>
+        <v>1161</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="70">
+        <f t="shared" si="1"/>
+        <v>1162</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
+      <c r="B38" s="70">
+        <f t="shared" si="1"/>
+        <v>1163</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="69"/>
+      <c r="B39" s="70">
+        <f t="shared" si="1"/>
+        <v>1164</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="69"/>
+      <c r="B40" s="70">
+        <f t="shared" si="1"/>
+        <v>1165</v>
+      </c>
+      <c r="C40" s="71"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="69"/>
+      <c r="B41" s="70">
+        <f t="shared" si="1"/>
+        <v>1166</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="69"/>
+      <c r="B42" s="70">
+        <f t="shared" si="1"/>
+        <v>1167</v>
+      </c>
+      <c r="C42" s="71"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="69"/>
+      <c r="B43" s="70">
+        <f t="shared" si="1"/>
+        <v>1168</v>
+      </c>
+      <c r="C43" s="71"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="69"/>
+      <c r="B44" s="70">
+        <f t="shared" si="1"/>
+        <v>1169</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="69"/>
+      <c r="B45" s="70">
+        <f t="shared" si="1"/>
+        <v>1170</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="69"/>
+      <c r="B46" s="70">
+        <f t="shared" si="1"/>
+        <v>1171</v>
+      </c>
+      <c r="C46" s="71"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="70">
+        <f t="shared" si="1"/>
+        <v>1172</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
+      <c r="B48" s="70">
+        <f t="shared" si="1"/>
+        <v>1173</v>
+      </c>
+      <c r="C48" s="71"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="69"/>
+      <c r="B49" s="70">
+        <f t="shared" si="1"/>
+        <v>1174</v>
+      </c>
+      <c r="C49" s="71"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="69"/>
+      <c r="B50" s="70">
+        <f t="shared" si="1"/>
+        <v>1175</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="69"/>
+      <c r="B51" s="70">
+        <f t="shared" si="1"/>
+        <v>1176</v>
+      </c>
+      <c r="C51" s="71"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="69"/>
+      <c r="B52" s="70">
+        <f t="shared" si="1"/>
+        <v>1177</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="69"/>
+      <c r="B53" s="70">
+        <f t="shared" si="1"/>
+        <v>1178</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="69"/>
+      <c r="B54" s="70">
+        <f t="shared" si="1"/>
+        <v>1179</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="72"/>
+      <c r="B55" s="70">
+        <f t="shared" si="1"/>
+        <v>1180</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="69"/>
+      <c r="B56" s="70">
+        <f t="shared" si="1"/>
+        <v>1181</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="69"/>
+      <c r="B57" s="70">
+        <f t="shared" si="1"/>
+        <v>1182</v>
+      </c>
+      <c r="C57" s="71"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="69"/>
+      <c r="B58" s="70">
+        <f t="shared" si="1"/>
+        <v>1183</v>
+      </c>
+      <c r="C58" s="71"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="69"/>
+      <c r="B59" s="70">
+        <f t="shared" si="1"/>
+        <v>1184</v>
+      </c>
+      <c r="C59" s="71"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="69"/>
+      <c r="B60" s="70">
+        <f t="shared" si="1"/>
+        <v>1185</v>
+      </c>
+      <c r="C60" s="71"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="69"/>
+      <c r="B61" s="70">
+        <f t="shared" si="1"/>
+        <v>1186</v>
+      </c>
+      <c r="C61" s="71"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="69"/>
+      <c r="B62" s="70">
+        <f t="shared" si="1"/>
+        <v>1187</v>
+      </c>
+      <c r="C62" s="71"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="69"/>
+      <c r="B63" s="70">
+        <f t="shared" si="1"/>
+        <v>1188</v>
+      </c>
+      <c r="C63" s="71"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="69"/>
+      <c r="B64" s="70">
+        <f t="shared" si="1"/>
+        <v>1189</v>
+      </c>
+      <c r="C64" s="71"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="73"/>
+      <c r="B65" s="70">
+        <f t="shared" si="1"/>
+        <v>1190</v>
+      </c>
+      <c r="C65" s="71"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="73"/>
+      <c r="B66" s="70">
+        <f t="shared" si="1"/>
+        <v>1191</v>
+      </c>
+      <c r="C66" s="71"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="73"/>
+      <c r="B67" s="70">
+        <f t="shared" si="1"/>
+        <v>1192</v>
+      </c>
+      <c r="C67" s="71"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="73"/>
+      <c r="B68" s="70">
+        <f t="shared" si="1"/>
+        <v>1193</v>
+      </c>
+      <c r="C68" s="71"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="73"/>
+      <c r="B69" s="70">
+        <f t="shared" si="1"/>
+        <v>1194</v>
+      </c>
+      <c r="C69" s="71"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="73"/>
+      <c r="B70" s="70">
+        <f t="shared" ref="B70:B91" si="2">B69+1</f>
+        <v>1195</v>
+      </c>
+      <c r="C70" s="71"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="73"/>
+      <c r="B71" s="70">
+        <f t="shared" si="2"/>
+        <v>1196</v>
+      </c>
+      <c r="C71" s="71"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="73"/>
+      <c r="B72" s="70">
+        <f t="shared" si="2"/>
+        <v>1197</v>
+      </c>
+      <c r="C72" s="71"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="73"/>
+      <c r="B73" s="70">
+        <f t="shared" si="2"/>
+        <v>1198</v>
+      </c>
+      <c r="C73" s="71"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="73"/>
+      <c r="B74" s="70">
+        <f t="shared" si="2"/>
+        <v>1199</v>
+      </c>
+      <c r="C74" s="71"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="73"/>
+      <c r="B75" s="70">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="C75" s="71"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="73"/>
+      <c r="B76" s="70">
+        <f t="shared" si="2"/>
+        <v>1201</v>
+      </c>
+      <c r="C76" s="71"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="73"/>
+      <c r="B77" s="70">
+        <f t="shared" si="2"/>
+        <v>1202</v>
+      </c>
+      <c r="C77" s="71"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="73"/>
+      <c r="B78" s="70">
+        <f t="shared" si="2"/>
+        <v>1203</v>
+      </c>
+      <c r="C78" s="71"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="73"/>
+      <c r="B79" s="70">
+        <f t="shared" si="2"/>
+        <v>1204</v>
+      </c>
+      <c r="C79" s="71"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="73"/>
+      <c r="B80" s="70">
+        <f t="shared" si="2"/>
+        <v>1205</v>
+      </c>
+      <c r="C80" s="71"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="73"/>
+      <c r="B81" s="70">
+        <f t="shared" si="2"/>
+        <v>1206</v>
+      </c>
+      <c r="C81" s="71"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="73"/>
+      <c r="B82" s="70">
+        <f t="shared" si="2"/>
+        <v>1207</v>
+      </c>
+      <c r="C82" s="71"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="73"/>
+      <c r="B83" s="70">
+        <f t="shared" si="2"/>
+        <v>1208</v>
+      </c>
+      <c r="C83" s="71"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="73"/>
+      <c r="B84" s="70">
+        <f t="shared" si="2"/>
+        <v>1209</v>
+      </c>
+      <c r="C84" s="71"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="73"/>
+      <c r="B85" s="70">
+        <f t="shared" si="2"/>
+        <v>1210</v>
+      </c>
+      <c r="C85" s="71"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="73"/>
+      <c r="B86" s="70">
+        <f t="shared" si="2"/>
+        <v>1211</v>
+      </c>
+      <c r="C86" s="71"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="73"/>
+      <c r="B87" s="70">
+        <f t="shared" si="2"/>
+        <v>1212</v>
+      </c>
+      <c r="C87" s="71"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="70">
+        <f t="shared" si="2"/>
+        <v>1213</v>
+      </c>
+      <c r="C88" s="71"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="73"/>
+      <c r="B89" s="70">
+        <f t="shared" si="2"/>
+        <v>1214</v>
+      </c>
+      <c r="C89" s="71"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="73"/>
+      <c r="B90" s="70">
+        <f t="shared" si="2"/>
+        <v>1215</v>
+      </c>
+      <c r="C90" s="71"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="73"/>
+      <c r="B91" s="70">
+        <f t="shared" si="2"/>
+        <v>1216</v>
+      </c>
+      <c r="C91" s="71"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="46">
+        <f>SUM(E4:E93)</f>
+        <v>2150</v>
+      </c>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47">
+        <f>SUM(G4:G93)</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="48">
+        <f>SUM(H4:H93)</f>
+        <v>2150</v>
+      </c>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="44"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B96" s="44"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="50"/>
+      <c r="G96" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="51"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="44"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="44"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="78">
+        <f>E94-G94</f>
+        <v>2150</v>
+      </c>
+      <c r="F98" s="79"/>
+      <c r="G98" s="80"/>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="64"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B100" s="44"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="81"/>
+      <c r="G100" s="81"/>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="44"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="64"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="24"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="65"/>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="44"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="64"/>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="44"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="64"/>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="44"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="64"/>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="44"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="64"/>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="44"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="64"/>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="44"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="64"/>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="44"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="64"/>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="44"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="64"/>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="44"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="64"/>
+      <c r="I111" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E100:G100"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS  HERRADURA   MARZO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS  HERRADURA   MARZO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2023     " sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="72">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -208,13 +208,43 @@
     <t>26-Feb-23--27-Feb-23</t>
   </si>
   <si>
-    <t>27-Feb-23--</t>
+    <t>REMISIONES    POR     CREDITOS         DE   MARZO      2 0 2 3</t>
   </si>
   <si>
-    <t>28-Feb-23--</t>
+    <t>27-Feb-23--2-Mar-23--3-Mar-23--</t>
   </si>
   <si>
-    <t>REMISIONES    POR     CREDITOS         DE   MARZO      2 0 2 3</t>
+    <t>28-Feb-23--3-Mar-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUSTAVO HERRADURA </t>
+  </si>
+  <si>
+    <t>4-Mar-23--5-Mar-23</t>
+  </si>
+  <si>
+    <t>5-Mar-23--6-Mar-23--7-Mar-23--</t>
+  </si>
+  <si>
+    <t>7-Mar-23--9-Mar-23</t>
+  </si>
+  <si>
+    <t>9-Mar-23--10-Mar-23</t>
+  </si>
+  <si>
+    <t>10-Mar-23--11-Mar-23</t>
+  </si>
+  <si>
+    <t>10-Mar-23--12-Mar-23</t>
+  </si>
+  <si>
+    <t>11-Mar-23--12-Mar-23</t>
+  </si>
+  <si>
+    <t>13-Mar-23--</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
   </si>
 </sst>
 </file>
@@ -3620,8 +3650,8 @@
   </sheetPr>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F84" sqref="F83:F84"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5382,11 +5412,15 @@
       <c r="E68" s="22">
         <v>5400</v>
       </c>
-      <c r="F68" s="67"/>
-      <c r="G68" s="68"/>
+      <c r="F68" s="67">
+        <v>44990</v>
+      </c>
+      <c r="G68" s="68">
+        <v>5400</v>
+      </c>
       <c r="H68" s="20">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -5615,11 +5649,15 @@
       <c r="E77" s="22">
         <v>8100</v>
       </c>
-      <c r="F77" s="67"/>
-      <c r="G77" s="68"/>
+      <c r="F77" s="67">
+        <v>44990</v>
+      </c>
+      <c r="G77" s="68">
+        <v>8100</v>
+      </c>
       <c r="H77" s="20">
         <f t="shared" si="0"/>
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5700,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A81" s="73">
         <v>44982</v>
       </c>
@@ -5715,16 +5753,16 @@
       <c r="E81" s="22">
         <v>3115</v>
       </c>
-      <c r="F81" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G81" s="32">
-        <f>1000</f>
-        <v>1000</v>
+      <c r="F81" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" s="68">
+        <f>1000+1900+215</f>
+        <v>3115</v>
       </c>
       <c r="H81" s="20">
         <f t="shared" si="0"/>
-        <v>2115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5909,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="73">
         <v>44985</v>
       </c>
@@ -5924,16 +5962,16 @@
       <c r="E89" s="22">
         <v>5163</v>
       </c>
-      <c r="F89" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G89" s="32">
-        <f>5000</f>
-        <v>5000</v>
+      <c r="F89" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="68">
+        <f>5000+163</f>
+        <v>5163</v>
       </c>
       <c r="H89" s="20">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5951,11 +5989,16 @@
       <c r="E90" s="22">
         <v>2404</v>
       </c>
-      <c r="F90" s="67"/>
-      <c r="G90" s="68"/>
+      <c r="F90" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90" s="68">
+        <f>1404+1000</f>
+        <v>2404</v>
+      </c>
       <c r="H90" s="20">
         <f t="shared" si="0"/>
-        <v>2404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5973,11 +6016,15 @@
       <c r="E91" s="22">
         <v>3240</v>
       </c>
-      <c r="F91" s="67"/>
-      <c r="G91" s="68"/>
+      <c r="F91" s="67">
+        <v>44990</v>
+      </c>
+      <c r="G91" s="68">
+        <v>3240</v>
+      </c>
       <c r="H91" s="20">
         <f t="shared" si="0"/>
-        <v>3240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6017,11 +6064,11 @@
       <c r="F94" s="47"/>
       <c r="G94" s="47">
         <f>SUM(G4:G93)</f>
-        <v>390110</v>
+        <v>411532</v>
       </c>
       <c r="H94" s="48">
         <f>SUM(H4:H93)</f>
-        <v>21422</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3"/>
     </row>
@@ -6065,7 +6112,7 @@
       <c r="D98" s="3"/>
       <c r="E98" s="78">
         <f>E94-G94</f>
-        <v>21422</v>
+        <v>0</v>
       </c>
       <c r="F98" s="79"/>
       <c r="G98" s="80"/>
@@ -6211,8 +6258,11 @@
   </sheetPr>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6232,7 +6282,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -6293,699 +6343,1117 @@
       <c r="E4" s="18">
         <v>2150</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="62"/>
+      <c r="F4" s="19">
+        <v>44987</v>
+      </c>
+      <c r="G4" s="62">
+        <v>2150</v>
+      </c>
       <c r="H4" s="20">
         <f t="shared" ref="H4:H93" si="0">E4-G4</f>
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14">
+        <v>44987</v>
+      </c>
       <c r="B5" s="15">
         <v>1130</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="32"/>
+      <c r="D5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="22">
+        <v>12995</v>
+      </c>
+      <c r="F5" s="23">
+        <v>44988</v>
+      </c>
+      <c r="G5" s="32">
+        <v>12995</v>
+      </c>
       <c r="H5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14">
+        <v>44987</v>
+      </c>
       <c r="B6" s="15">
         <f t="shared" ref="B6:B69" si="1">B5+1</f>
         <v>1131</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="32"/>
+      <c r="D6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="22">
+        <v>708</v>
+      </c>
+      <c r="F6" s="23">
+        <v>44988</v>
+      </c>
+      <c r="G6" s="32">
+        <v>708</v>
+      </c>
       <c r="H6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="24">
+        <v>44987</v>
+      </c>
       <c r="B7" s="15">
         <f t="shared" si="1"/>
         <v>1132</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="32"/>
+      <c r="D7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22">
+        <v>2632</v>
+      </c>
+      <c r="F7" s="23">
+        <v>44988</v>
+      </c>
+      <c r="G7" s="32">
+        <v>2632</v>
+      </c>
       <c r="H7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14">
+        <v>44988</v>
+      </c>
       <c r="B8" s="15">
         <f t="shared" si="1"/>
         <v>1133</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="32"/>
+      <c r="D8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1531</v>
+      </c>
+      <c r="F8" s="23">
+        <v>44990</v>
+      </c>
+      <c r="G8" s="32">
+        <v>1531</v>
+      </c>
       <c r="H8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14">
+        <v>44988</v>
+      </c>
       <c r="B9" s="15">
         <f t="shared" si="1"/>
         <v>1134</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="32"/>
+      <c r="D9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="22">
+        <v>3965</v>
+      </c>
+      <c r="F9" s="23">
+        <v>44989</v>
+      </c>
+      <c r="G9" s="32">
+        <v>3965</v>
+      </c>
       <c r="H9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>44988</v>
+      </c>
       <c r="B10" s="15">
         <f t="shared" si="1"/>
         <v>1135</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="22">
+        <v>11190</v>
+      </c>
+      <c r="F10" s="23">
+        <v>44997</v>
+      </c>
+      <c r="G10" s="32">
+        <v>11190</v>
+      </c>
       <c r="H10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>44988</v>
+      </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
         <v>1136</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="32"/>
+      <c r="D11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="22">
+        <v>646</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="32">
+        <f>446+200</f>
+        <v>646</v>
+      </c>
       <c r="H11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44989</v>
+      </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>1137</v>
       </c>
       <c r="C12" s="26"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="32"/>
+      <c r="D12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3147</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="32">
+        <f>1000+600+1547</f>
+        <v>3147</v>
+      </c>
       <c r="H12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>44989</v>
+      </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
         <v>1138</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="32"/>
+      <c r="D13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="22">
+        <v>9039</v>
+      </c>
+      <c r="F13" s="23">
+        <v>44990</v>
+      </c>
+      <c r="G13" s="32">
+        <v>9039</v>
+      </c>
       <c r="H13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>44989</v>
+      </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>1139</v>
       </c>
       <c r="C14" s="26"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="32"/>
+      <c r="D14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="22">
+        <v>4162</v>
+      </c>
+      <c r="F14" s="23">
+        <v>44990</v>
+      </c>
+      <c r="G14" s="32">
+        <v>4162</v>
+      </c>
       <c r="H14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>44989</v>
+      </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="32"/>
+      <c r="D15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="22">
+        <v>8712</v>
+      </c>
+      <c r="F15" s="23">
+        <v>44992</v>
+      </c>
+      <c r="G15" s="32">
+        <v>8712</v>
+      </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>44989</v>
+      </c>
       <c r="B16" s="15">
         <f t="shared" si="1"/>
         <v>1141</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="32"/>
+      <c r="D16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="22">
+        <v>10080</v>
+      </c>
+      <c r="F16" s="23">
+        <v>44991</v>
+      </c>
+      <c r="G16" s="32">
+        <v>10080</v>
+      </c>
       <c r="H16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>44990</v>
+      </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
         <v>1142</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="32"/>
+      <c r="D17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1704</v>
+      </c>
+      <c r="F17" s="23">
+        <v>44992</v>
+      </c>
+      <c r="G17" s="32">
+        <v>1704</v>
+      </c>
       <c r="H17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44990</v>
+      </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
         <v>1143</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="32"/>
+      <c r="D18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="22">
+        <v>4730</v>
+      </c>
+      <c r="F18" s="23">
+        <v>44991</v>
+      </c>
+      <c r="G18" s="32">
+        <v>4730</v>
+      </c>
       <c r="H18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>44991</v>
+      </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
         <v>1144</v>
       </c>
       <c r="C19" s="27"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="32"/>
+      <c r="D19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="22">
+        <v>16637</v>
+      </c>
+      <c r="F19" s="23">
+        <v>44992</v>
+      </c>
+      <c r="G19" s="32">
+        <v>16637</v>
+      </c>
       <c r="H19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>44991</v>
+      </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
         <v>1145</v>
       </c>
       <c r="C20" s="26"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="32"/>
+      <c r="D20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="22">
+        <v>461</v>
+      </c>
+      <c r="F20" s="23">
+        <v>44993</v>
+      </c>
+      <c r="G20" s="32">
+        <v>461</v>
+      </c>
       <c r="H20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>44991</v>
+      </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
         <v>1146</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="32"/>
+      <c r="D21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1644</v>
+      </c>
+      <c r="F21" s="23">
+        <v>44992</v>
+      </c>
+      <c r="G21" s="32">
+        <v>1644</v>
+      </c>
       <c r="H21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>44991</v>
+      </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
         <v>1147</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="32"/>
+      <c r="D22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="22">
+        <v>11472</v>
+      </c>
+      <c r="F22" s="23">
+        <v>44992</v>
+      </c>
+      <c r="G22" s="32">
+        <v>11472</v>
+      </c>
       <c r="H22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>44991</v>
+      </c>
       <c r="B23" s="15">
         <f t="shared" si="1"/>
         <v>1148</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="32"/>
+      <c r="D23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="22">
+        <v>4317</v>
+      </c>
+      <c r="F23" s="23">
+        <v>44992</v>
+      </c>
+      <c r="G23" s="32">
+        <v>4317</v>
+      </c>
       <c r="H23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>44992</v>
+      </c>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>1149</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="32"/>
+      <c r="D24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="22">
+        <v>1783</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="32">
+        <f>1341+442</f>
+        <v>1783</v>
+      </c>
       <c r="H24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>44992</v>
+      </c>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
         <v>1150</v>
       </c>
       <c r="C25" s="26"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="32"/>
+      <c r="D25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="22">
+        <v>4078</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="32">
+        <f>2400+1678</f>
+        <v>4078</v>
+      </c>
       <c r="H25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="14">
+        <v>44992</v>
+      </c>
       <c r="B26" s="15">
         <f t="shared" si="1"/>
         <v>1151</v>
       </c>
       <c r="C26" s="26"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="32"/>
+      <c r="D26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="22">
+        <v>4981</v>
+      </c>
+      <c r="F26" s="23">
+        <v>44994</v>
+      </c>
+      <c r="G26" s="32">
+        <v>4981</v>
+      </c>
       <c r="H26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>44992</v>
+      </c>
       <c r="B27" s="15">
         <f t="shared" si="1"/>
         <v>1152</v>
       </c>
       <c r="C27" s="26"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="32"/>
+      <c r="D27" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="22">
+        <v>11558</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="32">
+        <f>5000+6558</f>
+        <v>11558</v>
+      </c>
       <c r="H27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>44992</v>
+      </c>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
         <v>1153</v>
       </c>
       <c r="C28" s="26"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="32"/>
+      <c r="D28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="22">
+        <v>750</v>
+      </c>
+      <c r="F28" s="23">
+        <v>44997</v>
+      </c>
+      <c r="G28" s="32">
+        <v>750</v>
+      </c>
       <c r="H28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
+    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="69">
+        <v>44994</v>
+      </c>
       <c r="B29" s="70">
         <f t="shared" si="1"/>
         <v>1154</v>
       </c>
       <c r="C29" s="71"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="32"/>
+      <c r="D29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="22">
+        <v>2533</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="32">
+        <f>1000+1533</f>
+        <v>2533</v>
+      </c>
       <c r="H29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
+      <c r="A30" s="69">
+        <v>44994</v>
+      </c>
       <c r="B30" s="70">
         <f t="shared" si="1"/>
         <v>1155</v>
       </c>
       <c r="C30" s="71"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="32"/>
+      <c r="D30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="22">
+        <v>3798</v>
+      </c>
+      <c r="F30" s="23">
+        <v>44995</v>
+      </c>
+      <c r="G30" s="32">
+        <v>3798</v>
+      </c>
       <c r="H30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
+    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="69">
+        <v>44994</v>
+      </c>
       <c r="B31" s="70">
         <f t="shared" si="1"/>
         <v>1156</v>
       </c>
       <c r="C31" s="71"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="32"/>
+      <c r="D31" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="22">
+        <v>4532</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="32">
+        <f>3558+974</f>
+        <v>4532</v>
+      </c>
       <c r="H31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
+      <c r="A32" s="69">
+        <v>44995</v>
+      </c>
       <c r="B32" s="70">
         <f t="shared" si="1"/>
         <v>1157</v>
       </c>
       <c r="C32" s="71"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="32"/>
+      <c r="D32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1387</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="32">
+        <v>1387</v>
+      </c>
       <c r="H32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
+      <c r="A33" s="69">
+        <v>44995</v>
+      </c>
       <c r="B33" s="70">
         <f t="shared" si="1"/>
         <v>1158</v>
       </c>
       <c r="C33" s="71"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="32"/>
+      <c r="D33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="22">
+        <v>3726</v>
+      </c>
+      <c r="F33" s="23">
+        <v>44996</v>
+      </c>
+      <c r="G33" s="32">
+        <v>3726</v>
+      </c>
       <c r="H33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="69">
+        <v>44995</v>
+      </c>
       <c r="B34" s="70">
         <f t="shared" si="1"/>
         <v>1159</v>
       </c>
       <c r="C34" s="71"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
+      <c r="D34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="22">
+        <v>13290</v>
+      </c>
       <c r="F34" s="23"/>
       <c r="G34" s="32"/>
       <c r="H34" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13290</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
+      <c r="A35" s="69">
+        <v>44995</v>
+      </c>
       <c r="B35" s="70">
         <f t="shared" si="1"/>
         <v>1160</v>
       </c>
       <c r="C35" s="71"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="32"/>
+      <c r="D35" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="22">
+        <v>3001</v>
+      </c>
+      <c r="F35" s="23">
+        <v>44997</v>
+      </c>
+      <c r="G35" s="32">
+        <v>3001</v>
+      </c>
       <c r="H35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="69">
+        <v>44996</v>
+      </c>
       <c r="B36" s="70">
         <f t="shared" si="1"/>
         <v>1161</v>
       </c>
       <c r="C36" s="71"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="22">
+        <v>509</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="32">
+        <f>209+300</f>
+        <v>509</v>
+      </c>
       <c r="H36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
+      <c r="A37" s="69">
+        <v>44996</v>
+      </c>
       <c r="B37" s="70">
         <f t="shared" si="1"/>
         <v>1162</v>
       </c>
       <c r="C37" s="71"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="32"/>
+      <c r="D37" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="22">
+        <v>13182</v>
+      </c>
+      <c r="F37" s="23">
+        <v>44997</v>
+      </c>
+      <c r="G37" s="32">
+        <v>13182</v>
+      </c>
       <c r="H37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
+      <c r="A38" s="69">
+        <v>44996</v>
+      </c>
       <c r="B38" s="70">
         <f t="shared" si="1"/>
         <v>1163</v>
       </c>
       <c r="C38" s="71"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="32"/>
+      <c r="D38" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="22">
+        <v>14500</v>
+      </c>
+      <c r="F38" s="23">
+        <v>44997</v>
+      </c>
+      <c r="G38" s="32">
+        <v>14500</v>
+      </c>
       <c r="H38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
+      <c r="A39" s="69">
+        <v>44996</v>
+      </c>
       <c r="B39" s="70">
         <f t="shared" si="1"/>
         <v>1164</v>
       </c>
       <c r="C39" s="71"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="32"/>
+      <c r="D39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="22">
+        <v>4005</v>
+      </c>
+      <c r="F39" s="23">
+        <v>44997</v>
+      </c>
+      <c r="G39" s="32">
+        <v>4005</v>
+      </c>
       <c r="H39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+      <c r="A40" s="69">
+        <v>44996</v>
+      </c>
       <c r="B40" s="70">
         <f t="shared" si="1"/>
         <v>1165</v>
       </c>
       <c r="C40" s="71"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
+      <c r="D40" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="22">
+        <v>9120</v>
+      </c>
       <c r="F40" s="23"/>
       <c r="G40" s="32"/>
       <c r="H40" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
+      <c r="A41" s="69">
+        <v>44997</v>
+      </c>
       <c r="B41" s="70">
         <f t="shared" si="1"/>
         <v>1166</v>
       </c>
       <c r="C41" s="71"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
+      <c r="D41" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="22">
+        <v>2105</v>
+      </c>
       <c r="F41" s="23"/>
       <c r="G41" s="32"/>
       <c r="H41" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
+      <c r="A42" s="69">
+        <v>44997</v>
+      </c>
       <c r="B42" s="70">
         <f t="shared" si="1"/>
         <v>1167</v>
       </c>
       <c r="C42" s="71"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
+      <c r="D42" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="22">
+        <v>11502</v>
+      </c>
       <c r="F42" s="23"/>
       <c r="G42" s="32"/>
       <c r="H42" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11502</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
+      <c r="A43" s="69">
+        <v>44997</v>
+      </c>
       <c r="B43" s="70">
         <f t="shared" si="1"/>
         <v>1168</v>
       </c>
       <c r="C43" s="71"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="32"/>
+      <c r="D43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="22">
+        <v>5364</v>
+      </c>
+      <c r="F43" s="23">
+        <v>44998</v>
+      </c>
+      <c r="G43" s="32">
+        <v>5364</v>
+      </c>
       <c r="H43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
+      <c r="A44" s="69">
+        <v>44998</v>
+      </c>
       <c r="B44" s="70">
         <f t="shared" si="1"/>
         <v>1169</v>
       </c>
       <c r="C44" s="71"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="32"/>
+      <c r="D44" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="22">
+        <v>6279</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="32">
+        <v>4279</v>
+      </c>
       <c r="H44" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
+      <c r="A45" s="69">
+        <v>44998</v>
+      </c>
       <c r="B45" s="70">
         <f t="shared" si="1"/>
         <v>1170</v>
       </c>
       <c r="C45" s="71"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="32"/>
+      <c r="D45" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="22">
+        <v>75575</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="32">
+        <v>65000</v>
+      </c>
       <c r="H45" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10575</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
+      <c r="A46" s="69">
+        <v>44998</v>
+      </c>
       <c r="B46" s="70">
         <f t="shared" si="1"/>
         <v>1171</v>
       </c>
       <c r="C46" s="71"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
+      <c r="D46" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="22">
+        <v>1283</v>
+      </c>
       <c r="F46" s="23"/>
       <c r="G46" s="32"/>
       <c r="H46" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
+      <c r="A47" s="69">
+        <v>44998</v>
+      </c>
       <c r="B47" s="70">
         <f t="shared" si="1"/>
         <v>1172</v>
       </c>
       <c r="C47" s="71"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
+      <c r="D47" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="22">
+        <v>4963</v>
+      </c>
       <c r="F47" s="23"/>
       <c r="G47" s="32"/>
       <c r="H47" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7724,16 +8192,16 @@
       <c r="D94" s="3"/>
       <c r="E94" s="46">
         <f>SUM(E4:E93)</f>
-        <v>2150</v>
+        <v>315726</v>
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="47">
         <f>SUM(G4:G93)</f>
-        <v>0</v>
+        <v>260888</v>
       </c>
       <c r="H94" s="48">
         <f>SUM(H4:H93)</f>
-        <v>2150</v>
+        <v>54838</v>
       </c>
       <c r="I94" s="3"/>
     </row>
@@ -7777,7 +8245,7 @@
       <c r="D98" s="3"/>
       <c r="E98" s="78">
         <f>E94-G94</f>
-        <v>2150</v>
+        <v>54838</v>
       </c>
       <c r="F98" s="79"/>
       <c r="G98" s="80"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS  HERRADURA   MARZO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS  HERRADURA   MARZO    2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="81">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -245,6 +245,33 @@
   </si>
   <si>
     <t>OSCAR</t>
+  </si>
+  <si>
+    <t>13-Mar-23--14-Mar-23--</t>
+  </si>
+  <si>
+    <t>14-Mar-23--16-Mar-23</t>
+  </si>
+  <si>
+    <t>13-Mar-23--14-Mar-23--16-Mar-23</t>
+  </si>
+  <si>
+    <t>14-Mar-23--18-Mar-23</t>
+  </si>
+  <si>
+    <t>18-Mar-23--19-Mar-23</t>
+  </si>
+  <si>
+    <t>19-Mar-23--</t>
+  </si>
+  <si>
+    <t>20-Mar-23--21-Mar-23</t>
+  </si>
+  <si>
+    <t>20-Mar-23--22-Mar-23</t>
+  </si>
+  <si>
+    <t>22-Mar-23--</t>
   </si>
 </sst>
 </file>
@@ -605,7 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -813,6 +840,12 @@
     </xf>
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6259,10 +6292,10 @@
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7130,11 +7163,15 @@
       <c r="E34" s="22">
         <v>13290</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="32"/>
+      <c r="F34" s="23">
+        <v>45004</v>
+      </c>
+      <c r="G34" s="32">
+        <v>13290</v>
+      </c>
       <c r="H34" s="20">
         <f t="shared" si="0"/>
-        <v>13290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7283,14 +7320,18 @@
       <c r="E40" s="22">
         <v>9120</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="23">
+        <v>44999</v>
+      </c>
+      <c r="G40" s="32">
+        <v>9120</v>
+      </c>
       <c r="H40" s="20">
         <f t="shared" si="0"/>
-        <v>9120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="69">
         <v>44997</v>
       </c>
@@ -7305,11 +7346,16 @@
       <c r="E41" s="22">
         <v>2105</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="32"/>
+      <c r="F41" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="32">
+        <f>1800</f>
+        <v>1800</v>
+      </c>
       <c r="H41" s="20">
         <f t="shared" si="0"/>
-        <v>2105</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -7327,11 +7373,15 @@
       <c r="E42" s="22">
         <v>11502</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="32"/>
+      <c r="F42" s="23">
+        <v>45002</v>
+      </c>
+      <c r="G42" s="32">
+        <v>11502</v>
+      </c>
       <c r="H42" s="20">
         <f t="shared" si="0"/>
-        <v>11502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -7360,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="69">
         <v>44998</v>
       </c>
@@ -7376,17 +7426,18 @@
         <v>6279</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G44" s="32">
-        <v>4279</v>
+        <f>4279+1000+1000</f>
+        <v>6279</v>
       </c>
       <c r="H44" s="20">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="69">
         <v>44998</v>
       </c>
@@ -7402,14 +7453,15 @@
         <v>75575</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G45" s="32">
-        <v>65000</v>
+        <f>65000+10575</f>
+        <v>75575</v>
       </c>
       <c r="H45" s="20">
         <f t="shared" si="0"/>
-        <v>10575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -7427,11 +7479,15 @@
       <c r="E46" s="22">
         <v>1283</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="32"/>
+      <c r="F46" s="23">
+        <v>45001</v>
+      </c>
+      <c r="G46" s="32">
+        <v>1283</v>
+      </c>
       <c r="H46" s="20">
         <f t="shared" si="0"/>
-        <v>1283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7449,395 +7505,622 @@
       <c r="E47" s="22">
         <v>4963</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="32"/>
+      <c r="F47" s="23">
+        <v>44999</v>
+      </c>
+      <c r="G47" s="32">
+        <v>4963</v>
+      </c>
       <c r="H47" s="20">
         <f t="shared" si="0"/>
-        <v>4963</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="69">
+        <v>44999</v>
+      </c>
       <c r="B48" s="70">
         <f t="shared" si="1"/>
         <v>1173</v>
       </c>
       <c r="C48" s="71"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="32"/>
+      <c r="D48" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="22">
+        <v>3976</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="83">
+        <f>2000+1976</f>
+        <v>3976</v>
+      </c>
       <c r="H48" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
+      <c r="A49" s="69">
+        <v>44999</v>
+      </c>
       <c r="B49" s="70">
         <f t="shared" si="1"/>
         <v>1174</v>
       </c>
       <c r="C49" s="71"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="32"/>
+      <c r="D49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="22">
+        <v>2284</v>
+      </c>
+      <c r="F49" s="23">
+        <v>45002</v>
+      </c>
+      <c r="G49" s="32">
+        <v>2284</v>
+      </c>
       <c r="H49" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
+      <c r="A50" s="69">
+        <v>44999</v>
+      </c>
       <c r="B50" s="70">
         <f t="shared" si="1"/>
         <v>1175</v>
       </c>
       <c r="C50" s="71"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="32"/>
+      <c r="D50" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="22">
+        <v>4282</v>
+      </c>
+      <c r="F50" s="23">
+        <v>45000</v>
+      </c>
+      <c r="G50" s="32">
+        <v>4282</v>
+      </c>
       <c r="H50" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
+      <c r="A51" s="69">
+        <v>45000</v>
+      </c>
       <c r="B51" s="70">
         <f t="shared" si="1"/>
         <v>1176</v>
       </c>
       <c r="C51" s="71"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="32"/>
+      <c r="D51" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="22">
+        <v>5021</v>
+      </c>
+      <c r="F51" s="23">
+        <v>45001</v>
+      </c>
+      <c r="G51" s="32">
+        <v>5021</v>
+      </c>
       <c r="H51" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
+      <c r="A52" s="69">
+        <v>45001</v>
+      </c>
       <c r="B52" s="70">
         <f t="shared" si="1"/>
         <v>1177</v>
       </c>
       <c r="C52" s="71"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="32"/>
+      <c r="D52" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="22">
+        <v>458</v>
+      </c>
+      <c r="F52" s="23">
+        <v>45005</v>
+      </c>
+      <c r="G52" s="32">
+        <v>458</v>
+      </c>
       <c r="H52" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
+      <c r="A53" s="69">
+        <v>45001</v>
+      </c>
       <c r="B53" s="70">
         <f t="shared" si="1"/>
         <v>1178</v>
       </c>
       <c r="C53" s="71"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="32"/>
+      <c r="D53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="22">
+        <v>1584</v>
+      </c>
+      <c r="F53" s="23">
+        <v>45003</v>
+      </c>
+      <c r="G53" s="32">
+        <v>1584</v>
+      </c>
       <c r="H53" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
+      <c r="A54" s="69">
+        <v>45001</v>
+      </c>
       <c r="B54" s="70">
         <f t="shared" si="1"/>
         <v>1179</v>
       </c>
       <c r="C54" s="71"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="32"/>
+      <c r="D54" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="22">
+        <v>5462</v>
+      </c>
+      <c r="F54" s="82">
+        <v>45002</v>
+      </c>
+      <c r="G54" s="83">
+        <v>5462</v>
+      </c>
       <c r="H54" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
+      <c r="A55" s="72">
+        <v>45001</v>
+      </c>
       <c r="B55" s="70">
         <f t="shared" si="1"/>
         <v>1180</v>
       </c>
       <c r="C55" s="71"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="32"/>
+      <c r="D55" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="31">
+        <v>8120</v>
+      </c>
+      <c r="F55" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="83">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
       <c r="H55" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="69">
+        <v>45002</v>
+      </c>
       <c r="B56" s="70">
         <f t="shared" si="1"/>
         <v>1181</v>
       </c>
       <c r="C56" s="71"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="32"/>
+      <c r="D56" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="22">
+        <v>3370</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="32">
+        <f>1500+1870</f>
+        <v>3370</v>
+      </c>
       <c r="H56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
+      <c r="A57" s="69">
+        <v>45002</v>
+      </c>
       <c r="B57" s="70">
         <f t="shared" si="1"/>
         <v>1182</v>
       </c>
       <c r="C57" s="71"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
+      <c r="D57" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="22">
+        <v>16050</v>
+      </c>
       <c r="F57" s="23"/>
       <c r="G57" s="32"/>
       <c r="H57" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16050</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
+      <c r="A58" s="69">
+        <v>45003</v>
+      </c>
       <c r="B58" s="70">
         <f t="shared" si="1"/>
         <v>1183</v>
       </c>
       <c r="C58" s="71"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="32"/>
+      <c r="D58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="22">
+        <v>1394</v>
+      </c>
+      <c r="F58" s="23">
+        <v>45006</v>
+      </c>
+      <c r="G58" s="32">
+        <v>1394</v>
+      </c>
       <c r="H58" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
+    <row r="59" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="69">
+        <v>45003</v>
+      </c>
       <c r="B59" s="70">
         <f t="shared" si="1"/>
         <v>1184</v>
       </c>
       <c r="C59" s="71"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="32"/>
+      <c r="D59" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="22">
+        <v>565</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="32">
+        <f>404+161</f>
+        <v>565</v>
+      </c>
       <c r="H59" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
+      <c r="A60" s="69">
+        <v>45003</v>
+      </c>
       <c r="B60" s="70">
         <f t="shared" si="1"/>
         <v>1185</v>
       </c>
       <c r="C60" s="71"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="32"/>
+      <c r="D60" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="22">
+        <v>3283</v>
+      </c>
+      <c r="F60" s="23">
+        <v>45005</v>
+      </c>
+      <c r="G60" s="32">
+        <v>3283</v>
+      </c>
       <c r="H60" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
+      <c r="A61" s="69">
+        <v>45003</v>
+      </c>
       <c r="B61" s="70">
         <f t="shared" si="1"/>
         <v>1186</v>
       </c>
       <c r="C61" s="71"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
+      <c r="D61" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="22">
+        <v>10200</v>
+      </c>
       <c r="F61" s="23"/>
       <c r="G61" s="32"/>
       <c r="H61" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="69">
+        <v>45004</v>
+      </c>
       <c r="B62" s="70">
         <f t="shared" si="1"/>
         <v>1187</v>
       </c>
       <c r="C62" s="71"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="32"/>
+      <c r="D62" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="22">
+        <v>1182</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="32">
+        <f>500+682</f>
+        <v>1182</v>
+      </c>
       <c r="H62" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
+      <c r="A63" s="69">
+        <v>45004</v>
+      </c>
       <c r="B63" s="70">
         <f t="shared" si="1"/>
         <v>1188</v>
       </c>
       <c r="C63" s="71"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="32"/>
+      <c r="D63" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="22">
+        <v>14504</v>
+      </c>
+      <c r="F63" s="23">
+        <v>45005</v>
+      </c>
+      <c r="G63" s="32">
+        <v>14504</v>
+      </c>
       <c r="H63" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
+      <c r="A64" s="69">
+        <v>45004</v>
+      </c>
       <c r="B64" s="70">
         <f t="shared" si="1"/>
         <v>1189</v>
       </c>
       <c r="C64" s="71"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="32"/>
+      <c r="D64" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="22">
+        <v>6413</v>
+      </c>
+      <c r="F64" s="23">
+        <v>45006</v>
+      </c>
+      <c r="G64" s="32">
+        <v>6413</v>
+      </c>
       <c r="H64" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="73"/>
+    <row r="65" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="73">
+        <v>45005</v>
+      </c>
       <c r="B65" s="70">
         <f t="shared" si="1"/>
         <v>1190</v>
       </c>
       <c r="C65" s="71"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="32"/>
+      <c r="D65" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="22">
+        <v>6365</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="32">
+        <f>5865+500</f>
+        <v>6365</v>
+      </c>
       <c r="H65" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
+      <c r="A66" s="73">
+        <v>45005</v>
+      </c>
       <c r="B66" s="70">
         <f t="shared" si="1"/>
         <v>1191</v>
       </c>
       <c r="C66" s="71"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="32"/>
+      <c r="D66" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="22">
+        <v>4934</v>
+      </c>
+      <c r="F66" s="23">
+        <v>45006</v>
+      </c>
+      <c r="G66" s="32">
+        <v>4934</v>
+      </c>
       <c r="H66" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="73"/>
+      <c r="A67" s="73">
+        <v>45006</v>
+      </c>
       <c r="B67" s="70">
         <f t="shared" si="1"/>
         <v>1192</v>
       </c>
       <c r="C67" s="71"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="22"/>
+      <c r="D67" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="22">
+        <v>1600</v>
+      </c>
       <c r="F67" s="23"/>
       <c r="G67" s="32"/>
       <c r="H67" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="73"/>
+      <c r="A68" s="73">
+        <v>45006</v>
+      </c>
       <c r="B68" s="70">
         <f t="shared" si="1"/>
         <v>1193</v>
       </c>
       <c r="C68" s="71"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="22"/>
+      <c r="D68" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="22">
+        <v>526</v>
+      </c>
       <c r="F68" s="23"/>
       <c r="G68" s="32"/>
       <c r="H68" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>526</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
+      <c r="A69" s="73">
+        <v>45006</v>
+      </c>
       <c r="B69" s="70">
         <f t="shared" si="1"/>
         <v>1194</v>
       </c>
       <c r="C69" s="71"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="22"/>
+      <c r="D69" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="22">
+        <v>6029</v>
+      </c>
       <c r="F69" s="23"/>
       <c r="G69" s="32"/>
       <c r="H69" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
+      <c r="A70" s="73">
+        <v>45006</v>
+      </c>
       <c r="B70" s="70">
         <f t="shared" ref="B70:B91" si="2">B69+1</f>
         <v>1195</v>
       </c>
       <c r="C70" s="71"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="22"/>
+      <c r="D70" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="22">
+        <v>3172</v>
+      </c>
       <c r="F70" s="23"/>
       <c r="G70" s="32"/>
       <c r="H70" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="73"/>
+      <c r="A71" s="73">
+        <v>45007</v>
+      </c>
       <c r="B71" s="70">
         <f t="shared" si="2"/>
         <v>1196</v>
       </c>
       <c r="C71" s="71"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="32"/>
+      <c r="D71" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="22">
+        <v>4576</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" s="32">
+        <f>4075</f>
+        <v>4075</v>
+      </c>
       <c r="H71" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -8192,16 +8475,16 @@
       <c r="D94" s="3"/>
       <c r="E94" s="46">
         <f>SUM(E4:E93)</f>
-        <v>315726</v>
+        <v>431076</v>
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="47">
         <f>SUM(G4:G93)</f>
-        <v>260888</v>
+        <v>385573</v>
       </c>
       <c r="H94" s="48">
         <f>SUM(H4:H93)</f>
-        <v>54838</v>
+        <v>45503</v>
       </c>
       <c r="I94" s="3"/>
     </row>
@@ -8245,7 +8528,7 @@
       <c r="D98" s="3"/>
       <c r="E98" s="78">
         <f>E94-G94</f>
-        <v>54838</v>
+        <v>45503</v>
       </c>
       <c r="F98" s="79"/>
       <c r="G98" s="80"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS  HERRADURA   MARZO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/CREDITOS  HERRADURA   MARZO    2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="86">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -262,16 +262,31 @@
     <t>18-Mar-23--19-Mar-23</t>
   </si>
   <si>
-    <t>19-Mar-23--</t>
-  </si>
-  <si>
     <t>20-Mar-23--21-Mar-23</t>
   </si>
   <si>
     <t>20-Mar-23--22-Mar-23</t>
   </si>
   <si>
-    <t>22-Mar-23--</t>
+    <t>22-Mar-23--23-Mar-23</t>
+  </si>
+  <si>
+    <t>23-Mar-23--24-Mar-23</t>
+  </si>
+  <si>
+    <t>25-Mar-23--26-Mar-23</t>
+  </si>
+  <si>
+    <t>27-Mar-23--28-Mar-23</t>
+  </si>
+  <si>
+    <t>19-Mar-23--28-Mar-23--</t>
+  </si>
+  <si>
+    <t>28-Mar-23--29-Mar-23</t>
+  </si>
+  <si>
+    <t>30-Mar-23--</t>
   </si>
 </sst>
 </file>
@@ -817,6 +832,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,12 +861,6 @@
     </xf>
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1100,13 +1115,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1153,13 +1168,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1494,25 +1509,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -3535,12 +3550,12 @@
       <c r="B84" s="44"/>
       <c r="C84" s="45"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="78">
+      <c r="E84" s="80">
         <f>E80-G80</f>
         <v>0</v>
       </c>
-      <c r="F84" s="79"/>
-      <c r="G84" s="80"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="82"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3556,11 +3571,11 @@
       <c r="B86" s="44"/>
       <c r="C86" s="45"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="81" t="s">
+      <c r="E86" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3703,25 +3718,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -6143,12 +6158,12 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="78">
+      <c r="E98" s="80">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="79"/>
-      <c r="G98" s="80"/>
+      <c r="F98" s="81"/>
+      <c r="G98" s="82"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -6164,11 +6179,11 @@
       <c r="B100" s="44"/>
       <c r="C100" s="45"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="81" t="s">
+      <c r="E100" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="81"/>
-      <c r="G100" s="81"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -6289,13 +6304,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6314,25 +6329,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -6383,7 +6398,7 @@
         <v>2150</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H93" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H103" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="3"/>
@@ -7534,7 +7549,7 @@
       <c r="F48" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G48" s="83">
+      <c r="G48" s="75">
         <f>2000+1976</f>
         <v>3976</v>
       </c>
@@ -7688,10 +7703,10 @@
       <c r="E54" s="22">
         <v>5462</v>
       </c>
-      <c r="F54" s="82">
+      <c r="F54" s="74">
         <v>45002</v>
       </c>
-      <c r="G54" s="83">
+      <c r="G54" s="75">
         <v>5462</v>
       </c>
       <c r="H54" s="20">
@@ -7699,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="72">
         <v>45001</v>
       </c>
@@ -7714,16 +7729,16 @@
       <c r="E55" s="31">
         <v>8120</v>
       </c>
-      <c r="F55" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="83">
-        <f>1000</f>
-        <v>1000</v>
+      <c r="F55" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="75">
+        <f>1000+300</f>
+        <v>1300</v>
       </c>
       <c r="H55" s="33">
         <f t="shared" si="0"/>
-        <v>7120</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -7768,14 +7783,18 @@
       <c r="E57" s="22">
         <v>16050</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="32"/>
+      <c r="F57" s="23">
+        <v>45011</v>
+      </c>
+      <c r="G57" s="32">
+        <v>16050</v>
+      </c>
       <c r="H57" s="20">
         <f t="shared" si="0"/>
-        <v>16050</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="69">
         <v>45003</v>
       </c>
@@ -7869,11 +7888,15 @@
       <c r="E61" s="22">
         <v>10200</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="32"/>
+      <c r="F61" s="23">
+        <v>45008</v>
+      </c>
+      <c r="G61" s="32">
+        <v>10200</v>
+      </c>
       <c r="H61" s="20">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -7892,7 +7915,7 @@
         <v>1182</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G62" s="32">
         <f>500+682</f>
@@ -7971,7 +7994,7 @@
         <v>6365</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G65" s="32">
         <f>5865+500</f>
@@ -8023,11 +8046,15 @@
       <c r="E67" s="22">
         <v>1600</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="32"/>
+      <c r="F67" s="23">
+        <v>45010</v>
+      </c>
+      <c r="G67" s="32">
+        <v>1600</v>
+      </c>
       <c r="H67" s="20">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -8045,11 +8072,15 @@
       <c r="E68" s="22">
         <v>526</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="32"/>
+      <c r="F68" s="23">
+        <v>45008</v>
+      </c>
+      <c r="G68" s="32">
+        <v>526</v>
+      </c>
       <c r="H68" s="20">
         <f t="shared" si="0"/>
-        <v>526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -8067,11 +8098,15 @@
       <c r="E69" s="22">
         <v>6029</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="32"/>
+      <c r="F69" s="23">
+        <v>45008</v>
+      </c>
+      <c r="G69" s="32">
+        <v>6029</v>
+      </c>
       <c r="H69" s="20">
         <f t="shared" si="0"/>
-        <v>6029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -8079,7 +8114,7 @@
         <v>45006</v>
       </c>
       <c r="B70" s="70">
-        <f t="shared" ref="B70:B91" si="2">B69+1</f>
+        <f t="shared" ref="B70:B102" si="2">B69+1</f>
         <v>1195</v>
       </c>
       <c r="C70" s="71"/>
@@ -8089,14 +8124,18 @@
       <c r="E70" s="22">
         <v>3172</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="32"/>
+      <c r="F70" s="23">
+        <v>45011</v>
+      </c>
+      <c r="G70" s="32">
+        <v>3172</v>
+      </c>
       <c r="H70" s="20">
         <f t="shared" si="0"/>
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="73">
         <v>45007</v>
       </c>
@@ -8112,483 +8151,782 @@
         <v>4576</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" s="32">
-        <f>4075</f>
-        <v>4075</v>
+        <f>4075+501</f>
+        <v>4576</v>
       </c>
       <c r="H71" s="20">
         <f t="shared" si="0"/>
-        <v>501</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="73">
+        <v>45008</v>
+      </c>
       <c r="B72" s="70">
         <f t="shared" si="2"/>
         <v>1197</v>
       </c>
       <c r="C72" s="71"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="32"/>
+      <c r="D72" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="22">
+        <v>299</v>
+      </c>
+      <c r="F72" s="23">
+        <v>45014</v>
+      </c>
+      <c r="G72" s="32">
+        <v>299</v>
+      </c>
       <c r="H72" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="73"/>
+    <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="73">
+        <v>45008</v>
+      </c>
       <c r="B73" s="70">
         <f t="shared" si="2"/>
         <v>1198</v>
       </c>
       <c r="C73" s="71"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="32"/>
+      <c r="D73" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="22">
+        <v>5270</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73" s="32">
+        <f>4269+1001</f>
+        <v>5270</v>
+      </c>
       <c r="H73" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="73"/>
+      <c r="A74" s="73">
+        <v>45008</v>
+      </c>
       <c r="B74" s="70">
         <f t="shared" si="2"/>
         <v>1199</v>
       </c>
       <c r="C74" s="71"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="32"/>
+      <c r="D74" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="22">
+        <v>1550</v>
+      </c>
+      <c r="F74" s="23">
+        <v>45010</v>
+      </c>
+      <c r="G74" s="32">
+        <v>1550</v>
+      </c>
       <c r="H74" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="73"/>
+    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="73">
+        <v>45008</v>
+      </c>
       <c r="B75" s="70">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="C75" s="71"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="32"/>
+      <c r="D75" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="22">
+        <v>3466</v>
+      </c>
+      <c r="F75" s="23">
+        <v>45009</v>
+      </c>
+      <c r="G75" s="32">
+        <v>3466</v>
+      </c>
       <c r="H75" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="73"/>
+      <c r="A76" s="73">
+        <v>45008</v>
+      </c>
       <c r="B76" s="70">
         <f t="shared" si="2"/>
         <v>1201</v>
       </c>
       <c r="C76" s="71"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="32"/>
+      <c r="D76" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="22">
+        <v>2582</v>
+      </c>
+      <c r="F76" s="23">
+        <v>45009</v>
+      </c>
+      <c r="G76" s="32">
+        <v>2582</v>
+      </c>
       <c r="H76" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="73"/>
+      <c r="A77" s="73">
+        <v>45009</v>
+      </c>
       <c r="B77" s="70">
         <f t="shared" si="2"/>
         <v>1202</v>
       </c>
       <c r="C77" s="71"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="32"/>
+      <c r="D77" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="22">
+        <v>1026</v>
+      </c>
+      <c r="F77" s="23">
+        <v>45011</v>
+      </c>
+      <c r="G77" s="32">
+        <v>1026</v>
+      </c>
       <c r="H77" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
+      <c r="A78" s="73">
+        <v>45009</v>
+      </c>
       <c r="B78" s="70">
         <f t="shared" si="2"/>
         <v>1203</v>
       </c>
       <c r="C78" s="71"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="32"/>
+      <c r="D78" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="22">
+        <v>3054</v>
+      </c>
+      <c r="F78" s="23">
+        <v>45010</v>
+      </c>
+      <c r="G78" s="32">
+        <v>3054</v>
+      </c>
       <c r="H78" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="73"/>
+      <c r="A79" s="73">
+        <v>45009</v>
+      </c>
       <c r="B79" s="70">
         <f t="shared" si="2"/>
         <v>1204</v>
       </c>
       <c r="C79" s="71"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="32"/>
+      <c r="D79" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="22">
+        <v>8686</v>
+      </c>
+      <c r="F79" s="23">
+        <v>45011</v>
+      </c>
+      <c r="G79" s="32">
+        <v>8686</v>
+      </c>
       <c r="H79" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="73"/>
+      <c r="A80" s="73">
+        <v>45009</v>
+      </c>
       <c r="B80" s="70">
         <f t="shared" si="2"/>
         <v>1205</v>
       </c>
       <c r="C80" s="71"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="22"/>
+      <c r="D80" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="22">
+        <v>15660</v>
+      </c>
       <c r="F80" s="23"/>
       <c r="G80" s="32"/>
       <c r="H80" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="73"/>
+        <v>15660</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="73">
+        <v>45010</v>
+      </c>
       <c r="B81" s="70">
         <f t="shared" si="2"/>
         <v>1206</v>
       </c>
       <c r="C81" s="71"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="32"/>
+      <c r="D81" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="22">
+        <v>938</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" s="32">
+        <f>657+281</f>
+        <v>938</v>
+      </c>
       <c r="H81" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="73"/>
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="73">
+        <v>45010</v>
+      </c>
       <c r="B82" s="70">
         <f t="shared" si="2"/>
         <v>1207</v>
       </c>
       <c r="C82" s="71"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="32"/>
+      <c r="D82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="22">
+        <v>3320</v>
+      </c>
+      <c r="F82" s="23">
+        <v>45011</v>
+      </c>
+      <c r="G82" s="32">
+        <v>3320</v>
+      </c>
       <c r="H82" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="73"/>
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="73">
+        <v>45010</v>
+      </c>
       <c r="B83" s="70">
         <f t="shared" si="2"/>
         <v>1208</v>
       </c>
       <c r="C83" s="71"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="32"/>
+      <c r="D83" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="22">
+        <v>1710</v>
+      </c>
+      <c r="F83" s="23">
+        <v>45012</v>
+      </c>
+      <c r="G83" s="32">
+        <v>1710</v>
+      </c>
       <c r="H83" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="73"/>
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="73">
+        <v>45010</v>
+      </c>
       <c r="B84" s="70">
         <f t="shared" si="2"/>
         <v>1209</v>
       </c>
       <c r="C84" s="71"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="32"/>
+      <c r="D84" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="22">
+        <v>4008</v>
+      </c>
+      <c r="F84" s="23">
+        <v>45013</v>
+      </c>
+      <c r="G84" s="32">
+        <v>4008</v>
+      </c>
       <c r="H84" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="73"/>
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="73">
+        <v>45010</v>
+      </c>
       <c r="B85" s="70">
         <f t="shared" si="2"/>
         <v>1210</v>
       </c>
       <c r="C85" s="71"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="32"/>
+      <c r="D85" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="22">
+        <v>8250</v>
+      </c>
+      <c r="F85" s="23">
+        <v>45012</v>
+      </c>
+      <c r="G85" s="32">
+        <v>8250</v>
+      </c>
       <c r="H85" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="73"/>
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="73">
+        <v>45011</v>
+      </c>
       <c r="B86" s="70">
         <f t="shared" si="2"/>
         <v>1211</v>
       </c>
       <c r="C86" s="71"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="32"/>
+      <c r="D86" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="22">
+        <v>1363</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G86" s="32">
+        <f>600+763</f>
+        <v>1363</v>
+      </c>
       <c r="H86" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="73"/>
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="73">
+        <v>45011</v>
+      </c>
       <c r="B87" s="70">
         <f t="shared" si="2"/>
         <v>1212</v>
       </c>
       <c r="C87" s="71"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="32"/>
+      <c r="D87" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="22">
+        <v>8400</v>
+      </c>
+      <c r="F87" s="23">
+        <v>45012</v>
+      </c>
+      <c r="G87" s="32">
+        <v>8400</v>
+      </c>
       <c r="H87" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="73"/>
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="73">
+        <v>45011</v>
+      </c>
       <c r="B88" s="70">
         <f t="shared" si="2"/>
         <v>1213</v>
       </c>
       <c r="C88" s="71"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="32"/>
+      <c r="D88" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="22">
+        <v>3225</v>
+      </c>
+      <c r="F88" s="23">
+        <v>45013</v>
+      </c>
+      <c r="G88" s="32">
+        <v>3225</v>
+      </c>
       <c r="H88" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="73"/>
+    <row r="89" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="73">
+        <v>45012</v>
+      </c>
       <c r="B89" s="70">
         <f t="shared" si="2"/>
         <v>1214</v>
       </c>
       <c r="C89" s="71"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="32"/>
+      <c r="D89" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="22">
+        <v>1539</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G89" s="32">
+        <f>800+739</f>
+        <v>1539</v>
+      </c>
       <c r="H89" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="73"/>
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="73">
+        <v>45012</v>
+      </c>
       <c r="B90" s="70">
         <f t="shared" si="2"/>
         <v>1215</v>
       </c>
       <c r="C90" s="71"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="32"/>
+      <c r="D90" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3603</v>
+      </c>
+      <c r="F90" s="23">
+        <v>45013</v>
+      </c>
+      <c r="G90" s="32">
+        <v>3603</v>
+      </c>
       <c r="H90" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="73"/>
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="73">
+        <v>45013</v>
+      </c>
       <c r="B91" s="70">
         <f t="shared" si="2"/>
         <v>1216</v>
       </c>
       <c r="C91" s="71"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="32"/>
+      <c r="D91" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="22">
+        <v>289</v>
+      </c>
+      <c r="F91" s="23">
+        <v>45014</v>
+      </c>
+      <c r="G91" s="32">
+        <v>289</v>
+      </c>
       <c r="H91" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="32"/>
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="73">
+        <v>45013</v>
+      </c>
+      <c r="B92" s="70">
+        <f t="shared" si="2"/>
+        <v>1217</v>
+      </c>
+      <c r="C92" s="71"/>
+      <c r="D92" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="22">
+        <v>1063</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G92" s="32">
+        <f>400</f>
+        <v>400</v>
+      </c>
       <c r="H92" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="32"/>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="73">
+        <v>45013</v>
+      </c>
+      <c r="B93" s="70">
+        <f t="shared" si="2"/>
+        <v>1218</v>
+      </c>
+      <c r="C93" s="71"/>
+      <c r="D93" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="22">
+        <v>3414</v>
+      </c>
+      <c r="F93" s="23">
+        <v>45015</v>
+      </c>
+      <c r="G93" s="32">
+        <v>3414</v>
+      </c>
       <c r="H93" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="44"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="46">
-        <f>SUM(E4:E93)</f>
-        <v>431076</v>
-      </c>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47">
-        <f>SUM(G4:G93)</f>
-        <v>385573</v>
-      </c>
-      <c r="H94" s="48">
-        <f>SUM(H4:H93)</f>
-        <v>45503</v>
-      </c>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="44"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B96" s="44"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="50"/>
-      <c r="G96" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="51"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="44"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="44"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="78">
-        <f>E94-G94</f>
-        <v>45503</v>
-      </c>
-      <c r="F98" s="79"/>
-      <c r="G98" s="80"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="44"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="64"/>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B100" s="44"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="81"/>
-      <c r="G100" s="81"/>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="44"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="64"/>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="73">
+        <v>45013</v>
+      </c>
+      <c r="B94" s="70">
+        <f t="shared" si="2"/>
+        <v>1219</v>
+      </c>
+      <c r="C94" s="71"/>
+      <c r="D94" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="22">
+        <v>3447</v>
+      </c>
+      <c r="F94" s="23"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="20">
+        <f t="shared" si="0"/>
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="73">
+        <v>45015</v>
+      </c>
+      <c r="B95" s="70">
+        <f t="shared" si="2"/>
+        <v>1220</v>
+      </c>
+      <c r="C95" s="71"/>
+      <c r="D95" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="22">
+        <v>2024</v>
+      </c>
+      <c r="F95" s="23"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="20">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="73">
+        <v>45015</v>
+      </c>
+      <c r="B96" s="70">
+        <f t="shared" si="2"/>
+        <v>1221</v>
+      </c>
+      <c r="C96" s="71"/>
+      <c r="D96" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="22">
+        <v>3474</v>
+      </c>
+      <c r="F96" s="23"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="20">
+        <f t="shared" si="0"/>
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="73"/>
+      <c r="B97" s="70">
+        <f t="shared" si="2"/>
+        <v>1222</v>
+      </c>
+      <c r="C97" s="71"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="73"/>
+      <c r="B98" s="70">
+        <f t="shared" si="2"/>
+        <v>1223</v>
+      </c>
+      <c r="C98" s="71"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="73"/>
+      <c r="B99" s="70">
+        <f t="shared" si="2"/>
+        <v>1224</v>
+      </c>
+      <c r="C99" s="71"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="73"/>
+      <c r="B100" s="70">
+        <f t="shared" si="2"/>
+        <v>1225</v>
+      </c>
+      <c r="C100" s="71"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="73"/>
+      <c r="B101" s="70">
+        <f t="shared" si="2"/>
+        <v>1226</v>
+      </c>
+      <c r="C101" s="71"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="24"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="70">
+        <f t="shared" si="2"/>
+        <v>1227</v>
+      </c>
       <c r="C102" s="26"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="65"/>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="44"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="64"/>
-      <c r="I103" s="3"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="24"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="44"/>
       <c r="C104" s="45"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="64"/>
+      <c r="E104" s="46">
+        <f>SUM(E4:E103)</f>
+        <v>522736</v>
+      </c>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47">
+        <f>SUM(G4:G103)</f>
+        <v>490343</v>
+      </c>
+      <c r="H104" s="48">
+        <f>SUM(H4:H103)</f>
+        <v>32393</v>
+      </c>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -8598,33 +8936,43 @@
       <c r="E105" s="49"/>
       <c r="F105" s="50"/>
       <c r="G105" s="64"/>
+      <c r="H105" s="51"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B106" s="44"/>
       <c r="C106" s="45"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="49"/>
+      <c r="E106" s="52" t="s">
+        <v>8</v>
+      </c>
       <c r="F106" s="50"/>
-      <c r="G106" s="64"/>
+      <c r="G106" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" s="51"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="44"/>
       <c r="C107" s="45"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="49"/>
+      <c r="E107" s="52"/>
       <c r="F107" s="50"/>
-      <c r="G107" s="64"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="51"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B108" s="44"/>
       <c r="C108" s="45"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="50"/>
-      <c r="G108" s="64"/>
+      <c r="E108" s="80">
+        <f>E104-G104</f>
+        <v>32393</v>
+      </c>
+      <c r="F108" s="81"/>
+      <c r="G108" s="82"/>
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -8636,13 +8984,15 @@
       <c r="G109" s="64"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B110" s="44"/>
       <c r="C110" s="45"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="50"/>
-      <c r="G110" s="64"/>
+      <c r="E110" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="83"/>
+      <c r="G110" s="83"/>
       <c r="I110" s="3"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -8654,12 +9004,103 @@
       <c r="G111" s="64"/>
       <c r="I111" s="3"/>
     </row>
+    <row r="112" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A112" s="24"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="65"/>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="44"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="64"/>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="44"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="64"/>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="44"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="64"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="44"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="50"/>
+      <c r="G116" s="64"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="44"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="64"/>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="44"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="64"/>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="44"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="64"/>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="44"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="64"/>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="44"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="64"/>
+      <c r="I121" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="E110:G110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
